--- a/doc/writing_logs.xlsx
+++ b/doc/writing_logs.xlsx
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,6 +467,70 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B5" s="3">
+        <f>C4</f>
+        <v>5276</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5445</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
+        <v>169</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/writing_logs.xlsx
+++ b/doc/writing_logs.xlsx
@@ -374,7 +374,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
         <v>5445</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D20" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
         <v>169</v>
       </c>
       <c r="E5">
@@ -487,7 +487,23 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="3"/>
+      <c r="A6" s="1">
+        <v>43669</v>
+      </c>
+      <c r="B6" s="3">
+        <f>C5</f>
+        <v>5445</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5851</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="E6">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" s="3"/>

--- a/doc/writing_logs.xlsx
+++ b/doc/writing_logs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -48,6 +54,9 @@
   </si>
   <si>
     <t>638 words of this are from the references, but I'm going to just leave that in cause otherwise I have to subtract references all the time.</t>
+  </si>
+  <si>
+    <t>removed all outline text. a lot of edits were made the previous two days (7/29 and 7/30) and not recorded. This is pretty much the end of my first draft stage</t>
   </si>
 </sst>
 </file>
@@ -374,7 +383,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +488,7 @@
         <v>5445</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" ref="D5:D6" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D9" si="0">C5-B5</f>
         <v>169</v>
       </c>
       <c r="E5">
@@ -506,13 +515,64 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="3"/>
+      <c r="A7" s="1">
+        <v>43671</v>
+      </c>
+      <c r="B7" s="3">
+        <f>C6</f>
+        <v>5851</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7414</v>
+      </c>
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>1563</v>
+      </c>
+      <c r="E7">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
+      <c r="A8" s="1">
+        <v>43672</v>
+      </c>
+      <c r="B8" s="3">
+        <f>C7</f>
+        <v>7414</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7693</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="3"/>
+      <c r="A9" s="1">
+        <v>43677</v>
+      </c>
+      <c r="B9" s="3">
+        <f>C8</f>
+        <v>7693</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7082</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>-611</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="3"/>
